--- a/DocAvailability_List.xlsx
+++ b/DocAvailability_List.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>Doctor ID</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t>2026-03-10 10:30</t>
+  </si>
+  <si>
+    <t>2026-03-05 03:03</t>
+  </si>
+  <si>
+    <t>2027-03-05 10:00</t>
+  </si>
+  <si>
+    <t>2026-03-06 03:03</t>
+  </si>
+  <si>
+    <t>2028-03-03 10:00</t>
+  </si>
+  <si>
+    <t>2029-03-06 04:30</t>
+  </si>
+  <si>
+    <t>2029-03-08 10:30</t>
   </si>
 </sst>
 </file>
@@ -447,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D5B62B-9284-4239-9A24-AE9507FFDB77}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -463,6 +481,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DocAvailability_List.xlsx
+++ b/DocAvailability_List.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Doctor ID</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>2029-03-08 10:30</t>
+  </si>
+  <si>
+    <t>2029-03-03 03:03</t>
+  </si>
+  <si>
+    <t>2026-08-08 08:08</t>
+  </si>
+  <si>
+    <t>2027-03-06 10:10</t>
   </si>
 </sst>
 </file>
@@ -465,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D5B62B-9284-4239-9A24-AE9507FFDB77}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -481,14 +490,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DocAvailability_List.xlsx
+++ b/DocAvailability_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\SC2002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\oop-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E499415-DDC1-410C-8347-4CCD6B855C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AB0347-0AE2-49CF-A0A3-201CEDC317D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{321D00D3-3921-4345-A223-A57C0D47E9A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{321D00D3-3921-4345-A223-A57C0D47E9A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Doctor ID</t>
   </si>
@@ -47,61 +47,16 @@
     <t>D001</t>
   </si>
   <si>
-    <t>2025-01-01 01:01</t>
-  </si>
-  <si>
-    <t>2026-02-02 02:02</t>
-  </si>
-  <si>
-    <t>2025-03-03 10:30</t>
-  </si>
-  <si>
-    <t>2026-03-10 10:10</t>
-  </si>
-  <si>
-    <t>2025-03-01 20:20</t>
-  </si>
-  <si>
-    <t>2025-06-07 03:03</t>
-  </si>
-  <si>
-    <t>2025-06-07 10:30</t>
-  </si>
-  <si>
-    <t>2027-06-03 10:30</t>
-  </si>
-  <si>
-    <t>2025-03-02 10:30</t>
-  </si>
-  <si>
-    <t>2026-03-10 10:30</t>
-  </si>
-  <si>
-    <t>2026-03-05 03:03</t>
-  </si>
-  <si>
-    <t>2027-03-05 10:00</t>
-  </si>
-  <si>
-    <t>2026-03-06 03:03</t>
-  </si>
-  <si>
-    <t>2028-03-03 10:00</t>
-  </si>
-  <si>
-    <t>2029-03-06 04:30</t>
-  </si>
-  <si>
-    <t>2029-03-08 10:30</t>
-  </si>
-  <si>
-    <t>2029-03-03 03:03</t>
-  </si>
-  <si>
-    <t>2026-08-08 08:08</t>
-  </si>
-  <si>
-    <t>2027-03-06 10:10</t>
+    <t>2026-03-03 10:10</t>
+  </si>
+  <si>
+    <t>2027-03-03 03:03</t>
+  </si>
+  <si>
+    <t>2029-03-04 04:04</t>
+  </si>
+  <si>
+    <t>2027-03-03 10:10</t>
   </si>
 </sst>
 </file>
@@ -477,12 +432,12 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>

--- a/DocAvailability_List.xlsx
+++ b/DocAvailability_List.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\oop-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AB0347-0AE2-49CF-A0A3-201CEDC317D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CABC77-F7B8-4F5C-95D1-D2E284389D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{321D00D3-3921-4345-A223-A57C0D47E9A8}"/>
+    <workbookView xWindow="1905" yWindow="600" windowWidth="21600" windowHeight="11295" xr2:uid="{321D00D3-3921-4345-A223-A57C0D47E9A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,34 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Doctor ID</t>
   </si>
   <si>
     <t>Date</t>
   </si>
-  <si>
-    <t>D001</t>
-  </si>
-  <si>
-    <t>2026-03-03 10:10</t>
-  </si>
-  <si>
-    <t>2027-03-03 03:03</t>
-  </si>
-  <si>
-    <t>2029-03-04 04:04</t>
-  </si>
-  <si>
-    <t>2027-03-03 10:10</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,16 +416,19 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
